--- a/model_beef/postprocessing/final_heating_demands.xlsx
+++ b/model_beef/postprocessing/final_heating_demands.xlsx
@@ -653,17 +653,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1486,7 +1486,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3332,7 +3331,7 @@
       <c r="N2" s="56"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -3366,7 +3365,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="32" t="s">
         <v>42</v>
       </c>
@@ -3404,7 +3403,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -3446,7 +3445,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="32" t="s">
         <v>42</v>
       </c>
@@ -3484,7 +3483,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -3526,7 +3525,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="32" t="s">
         <v>42</v>
       </c>
@@ -3564,7 +3563,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -3602,7 +3601,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -3640,7 +3639,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -3676,7 +3675,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="32" t="s">
         <v>42</v>
       </c>
@@ -3714,7 +3713,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -3754,7 +3753,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
@@ -3792,7 +3791,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -3834,7 +3833,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="32" t="s">
         <v>42</v>
       </c>
@@ -3872,7 +3871,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -3912,7 +3911,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="32" t="s">
         <v>42</v>
       </c>
@@ -3950,7 +3949,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -3992,7 +3991,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="32" t="s">
         <v>42</v>
       </c>
@@ -4030,7 +4029,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -4072,7 +4071,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="32" t="s">
         <v>42</v>
       </c>
@@ -4111,12 +4110,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C1:H1"/>
@@ -4125,6 +4118,12 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="24">
@@ -4776,16 +4775,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:H327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="8.7109375" style="39"/>
+    <col min="5" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4798,10 +4798,10 @@
       <c r="D1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4818,10 +4818,10 @@
       <c r="D2" s="39">
         <v>20.1654714902362</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.19650471665395056</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.18169726910345455</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="39">
-        <v>116.52526292034101</v>
+        <v>110.426262920341</v>
       </c>
       <c r="D13" s="39">
         <v>89.405272599202704</v>
@@ -4962,7 +4962,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="39">
-        <v>120.034265650199</v>
+        <v>115.134265650199</v>
       </c>
       <c r="D14" s="39">
         <v>97.986165559493003</v>
@@ -4974,7 +4974,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="39">
-        <v>139.73586813891899</v>
+        <v>116.52526292034101</v>
       </c>
       <c r="D15" s="39">
         <v>115.06799994387799</v>
@@ -4986,7 +4986,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="39">
-        <v>159.78640366097801</v>
+        <v>120.034265650199</v>
       </c>
       <c r="D16" s="39">
         <v>125.398978192561</v>
@@ -4998,7 +4998,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="39">
-        <v>199.761167575668</v>
+        <v>139.73586813891899</v>
       </c>
       <c r="D17" s="39">
         <v>131.11572993956901</v>
@@ -5010,10 +5010,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="39">
-        <v>214.95022658172101</v>
+        <v>159.78640366097801</v>
       </c>
       <c r="D18" s="39">
-        <v>133.89990846866601</v>
+        <v>263.89990846866601</v>
       </c>
       <c r="E18" s="39"/>
     </row>
@@ -5022,10 +5022,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="39">
-        <v>273.91926154251001</v>
+        <v>199.761167575668</v>
       </c>
       <c r="D19" s="39">
-        <v>143.793216598345</v>
+        <v>283.793216598345</v>
       </c>
       <c r="E19" s="39"/>
     </row>
@@ -5034,10 +5034,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="39">
-        <v>360.70800084826601</v>
+        <v>214.95022658172101</v>
       </c>
       <c r="D20" s="39">
-        <v>191.48356231216999</v>
+        <v>291.48356231217002</v>
       </c>
       <c r="E20" s="39"/>
     </row>
@@ -5046,7 +5046,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="39">
-        <v>504.90336359282202</v>
+        <v>243.91926154250999</v>
       </c>
       <c r="D21" s="39">
         <v>293.68892882737799</v>
@@ -5058,10 +5058,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="39">
-        <v>596.20632587965895</v>
+        <v>260.70800084826601</v>
       </c>
       <c r="D22" s="39">
-        <v>433.64616238526003</v>
+        <v>333.64616238526003</v>
       </c>
       <c r="E22" s="39"/>
     </row>
@@ -5078,10 +5078,10 @@
       <c r="D23" s="39">
         <v>110.058181660803</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.58463850132969808</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0.5924609413031886</v>
       </c>
     </row>
@@ -5200,7 +5200,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="39">
-        <v>174.428177394371</v>
+        <v>173.38804323990399</v>
       </c>
       <c r="D34" s="39">
         <v>249.30127636972</v>
@@ -5211,7 +5211,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="39">
-        <v>203.01294261244001</v>
+        <v>186.097605970763</v>
       </c>
       <c r="D35" s="39">
         <v>252.81639173673</v>
@@ -5222,7 +5222,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="39">
-        <v>231.12137546940701</v>
+        <v>219.211760172476</v>
       </c>
       <c r="D36" s="39">
         <v>258.76752731224099</v>
@@ -5233,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="39">
-        <v>252.93945734213199</v>
+        <v>258.58117890999603</v>
       </c>
       <c r="D37" s="39">
         <v>296.58057284808399</v>
@@ -5244,7 +5244,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="39">
-        <v>314.01150124854001</v>
+        <v>260.99579777703599</v>
       </c>
       <c r="D38" s="39">
         <v>310.225227166173</v>
@@ -5255,7 +5255,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="39">
-        <v>351.50022251055202</v>
+        <v>263.17734515408199</v>
       </c>
       <c r="D39" s="39">
         <v>326.28026894709598</v>
@@ -5266,7 +5266,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="39">
-        <v>365.85460389735999</v>
+        <v>270.16258382168002</v>
       </c>
       <c r="D40" s="39">
         <v>342.38274561812102</v>
@@ -5277,7 +5277,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="39">
-        <v>398.572274097329</v>
+        <v>286.18839224580199</v>
       </c>
       <c r="D41" s="39">
         <v>360.44791945596802</v>
@@ -5288,7 +5288,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="39">
-        <v>521.23245624714298</v>
+        <v>316.99785544995001</v>
       </c>
       <c r="D42" s="39">
         <v>388.68762150420298</v>
@@ -5299,7 +5299,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="39">
-        <v>1317.08629432919</v>
+        <v>339.37281308967101</v>
       </c>
       <c r="D43" s="39">
         <v>768.322144259835</v>
@@ -5318,10 +5318,10 @@
       <c r="D44" s="39">
         <v>48.505516643874699</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>4.1596844289138547E-2</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0.45497091644603282</v>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="1">
-        <v>130.17008358627101</v>
+        <v>100.17008358627101</v>
       </c>
       <c r="D59" s="39">
         <v>137.20898967340801</v>
@@ -5495,7 +5495,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="1">
-        <v>153.50863413352701</v>
+        <v>113.508634133527</v>
       </c>
       <c r="D60" s="39">
         <v>145.98082261412</v>
@@ -5506,7 +5506,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="1">
-        <v>159.37601274033901</v>
+        <v>129.37601274033901</v>
       </c>
       <c r="D61" s="39">
         <v>153.45339292385</v>
@@ -5517,7 +5517,7 @@
         <v>18</v>
       </c>
       <c r="C62" s="1">
-        <v>202.22847216208899</v>
+        <v>132.22847216208899</v>
       </c>
       <c r="D62" s="39">
         <v>157.68749720075999</v>
@@ -5528,7 +5528,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="1">
-        <v>212.77692127182701</v>
+        <v>133.50863413352701</v>
       </c>
       <c r="D63" s="39">
         <v>173.64437424269499</v>
@@ -5539,10 +5539,10 @@
         <v>18</v>
       </c>
       <c r="C64" s="1">
-        <v>243.562785466343</v>
+        <v>139.37601274033901</v>
       </c>
       <c r="D64" s="39">
-        <v>345.42657247125197</v>
+        <v>245.426572471252</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5558,10 +5558,10 @@
       <c r="D65" s="39">
         <v>67.658651102967497</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>4.0308595054412207E-2</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>7.3127486429711147E-3</v>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
         <v>252.32872203914201</v>
       </c>
       <c r="D80" s="39">
-        <v>315.2344148135</v>
+        <v>295.2344148135</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5738,7 +5738,7 @@
         <v>257.767622861316</v>
       </c>
       <c r="D81" s="39">
-        <v>377.15412462585402</v>
+        <v>315.2344148135</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5749,7 +5749,7 @@
         <v>269.74021470509501</v>
       </c>
       <c r="D82" s="39">
-        <v>465.409244149784</v>
+        <v>377.15412462585402</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>340.87130026066899</v>
       </c>
       <c r="D83" s="39">
-        <v>603.71340270867097</v>
+        <v>385.409244149784</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5771,7 +5771,7 @@
         <v>483.368928407113</v>
       </c>
       <c r="D84" s="39">
-        <v>624.73817486179303</v>
+        <v>403.71340270867103</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,10 +5779,10 @@
         <v>19</v>
       </c>
       <c r="C85" s="39">
-        <v>1089.3493184353199</v>
+        <v>589.34931843532001</v>
       </c>
       <c r="D85" s="39">
-        <v>660.09015731475597</v>
+        <v>724.73817486179303</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5798,10 +5798,10 @@
       <c r="D86" s="39">
         <v>7.65016029159188</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>0.25748201644466517</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>0.16155655390145351</v>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="1">
-        <v>118.097930413578</v>
+        <v>118.04805387573499</v>
       </c>
       <c r="D99" s="39">
         <v>112.345705244732</v>
@@ -5953,7 +5953,7 @@
         <v>20</v>
       </c>
       <c r="C100" s="1">
-        <v>128.676507932878</v>
+        <v>123.81316915932599</v>
       </c>
       <c r="D100" s="39">
         <v>131.07584482197299</v>
@@ -5964,7 +5964,7 @@
         <v>20</v>
       </c>
       <c r="C101" s="1">
-        <v>181.70339586976499</v>
+        <v>128.676507932878</v>
       </c>
       <c r="D101" s="39">
         <v>138.447729453025</v>
@@ -5975,7 +5975,7 @@
         <v>20</v>
       </c>
       <c r="C102" s="1">
-        <v>226.641087166071</v>
+        <v>139.62032894913901</v>
       </c>
       <c r="D102" s="39">
         <v>176.051665725546</v>
@@ -5986,7 +5986,7 @@
         <v>20</v>
       </c>
       <c r="C103" s="1">
-        <v>258.00770852349899</v>
+        <v>181.70339586976499</v>
       </c>
       <c r="D103" s="39">
         <v>182.94414461397801</v>
@@ -5997,7 +5997,7 @@
         <v>20</v>
       </c>
       <c r="C104" s="1">
-        <v>361.687749608616</v>
+        <v>203.93941725348901</v>
       </c>
       <c r="D104" s="39">
         <v>276.873939741691</v>
@@ -6008,10 +6008,10 @@
         <v>20</v>
       </c>
       <c r="C105" s="1">
-        <v>389.69783674676802</v>
+        <v>226.641087166071</v>
       </c>
       <c r="D105" s="39">
-        <v>359.575410761581</v>
+        <v>299.575410761581</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -6019,10 +6019,10 @@
         <v>20</v>
       </c>
       <c r="C106" s="1">
-        <v>460.59878745947498</v>
+        <v>258.00770852349899</v>
       </c>
       <c r="D106" s="39">
-        <v>418.22290476156599</v>
+        <v>318.22290476156599</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -6038,10 +6038,10 @@
       <c r="D107" s="39">
         <v>14.322015428315201</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <v>9.8325111193739545E-2</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>1.3972985841718799E-2</v>
       </c>
     </row>
@@ -6273,15 +6273,15 @@
         <v>78</v>
       </c>
       <c r="C128">
-        <v>24.341363194894399</v>
+        <v>4.3413631948943996</v>
       </c>
       <c r="D128" s="39">
         <v>44.6172414182615</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>4.7902257112580809E-2</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>0.48271157624836791</v>
       </c>
     </row>
@@ -6290,7 +6290,7 @@
         <v>22</v>
       </c>
       <c r="C129">
-        <v>31.416832391605301</v>
+        <v>11.416832391605301</v>
       </c>
       <c r="D129" s="39">
         <v>60.863121815284003</v>
@@ -6301,7 +6301,7 @@
         <v>22</v>
       </c>
       <c r="C130">
-        <v>38.0017777870126</v>
+        <v>18.0017777870126</v>
       </c>
       <c r="D130" s="39">
         <v>77.057862041640007</v>
@@ -6312,7 +6312,7 @@
         <v>22</v>
       </c>
       <c r="C131">
-        <v>39.392075252635003</v>
+        <v>19.392075252634999</v>
       </c>
       <c r="D131" s="39">
         <v>80.902498141745298</v>
@@ -6323,7 +6323,7 @@
         <v>22</v>
       </c>
       <c r="C132">
-        <v>40.287588653582503</v>
+        <v>30.2875886535825</v>
       </c>
       <c r="D132" s="39">
         <v>87.268470406337102</v>
@@ -6334,7 +6334,7 @@
         <v>22</v>
       </c>
       <c r="C133">
-        <v>42.140952610457902</v>
+        <v>32.140952610457902</v>
       </c>
       <c r="D133" s="39">
         <v>89.583085217102607</v>
@@ -6345,7 +6345,7 @@
         <v>22</v>
       </c>
       <c r="C134">
-        <v>50.341414206851297</v>
+        <v>40.341414206851297</v>
       </c>
       <c r="D134" s="39">
         <v>91.680386148460599</v>
@@ -6356,7 +6356,7 @@
         <v>22</v>
       </c>
       <c r="C135">
-        <v>54.696378023751201</v>
+        <v>44.696378023751201</v>
       </c>
       <c r="D135" s="39">
         <v>106.165898354261</v>
@@ -6433,7 +6433,7 @@
         <v>22</v>
       </c>
       <c r="C142">
-        <v>17.431721015967</v>
+        <v>87.431721015967</v>
       </c>
       <c r="D142" s="39">
         <v>163.83937486029001</v>
@@ -6444,7 +6444,7 @@
         <v>22</v>
       </c>
       <c r="C143">
-        <v>139.39889647759</v>
+        <v>99.39889647759</v>
       </c>
       <c r="D143" s="39">
         <v>168.31811582031801</v>
@@ -6455,7 +6455,7 @@
         <v>22</v>
       </c>
       <c r="C144">
-        <v>152.499235492629</v>
+        <v>112.499235492629</v>
       </c>
       <c r="D144" s="39">
         <v>186.60927664279899</v>
@@ -6466,7 +6466,7 @@
         <v>22</v>
       </c>
       <c r="C145">
-        <v>172.130465925843</v>
+        <v>132.130465925843</v>
       </c>
       <c r="D145" s="39">
         <v>197.288961201446</v>
@@ -6477,7 +6477,7 @@
         <v>22</v>
       </c>
       <c r="C146">
-        <v>232.46927200746401</v>
+        <v>182.46927200746401</v>
       </c>
       <c r="D146" s="39">
         <v>201.004979576154</v>
@@ -6488,7 +6488,7 @@
         <v>22</v>
       </c>
       <c r="C147">
-        <v>318.29321328424601</v>
+        <v>218.29321328424601</v>
       </c>
       <c r="D147" s="39">
         <v>224.904791603212</v>
@@ -6499,7 +6499,7 @@
         <v>22</v>
       </c>
       <c r="C148">
-        <v>355.31183656773101</v>
+        <v>255.31183656773101</v>
       </c>
       <c r="D148" s="39">
         <v>476.92935392549498</v>
@@ -6518,10 +6518,10 @@
       <c r="D149" s="39">
         <v>25.939839798586799</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="1">
         <v>4.4493758813304335E-2</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
         <v>0.3391423128830261</v>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
         <v>127.31317679729599</v>
       </c>
       <c r="D162" s="39">
-        <v>259.87619458792801</v>
+        <v>229.87619458792801</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>142.10952651460701</v>
       </c>
       <c r="D163" s="39">
-        <v>279.11990101503801</v>
+        <v>239.11990101503801</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -6687,7 +6687,7 @@
         <v>154.18101970911101</v>
       </c>
       <c r="D164" s="39">
-        <v>290.321069897906</v>
+        <v>250.321069897906</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6698,7 +6698,7 @@
         <v>169.45475857528399</v>
       </c>
       <c r="D165" s="39">
-        <v>297.33884846758002</v>
+        <v>267.33884846758002</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6709,7 +6709,7 @@
         <v>202.007524203933</v>
       </c>
       <c r="D166" s="39">
-        <v>306.188961504183</v>
+        <v>286.188961504183</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
         <v>241.36793225121201</v>
       </c>
       <c r="D167" s="39">
-        <v>337.41800658121798</v>
+        <v>307.41800658121798</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6728,10 +6728,10 @@
         <v>23</v>
       </c>
       <c r="C168" s="39">
-        <v>288.58737627702197</v>
+        <v>258.58737627702197</v>
       </c>
       <c r="D168" s="39">
-        <v>410.19038266809201</v>
+        <v>320.19038266809201</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6739,10 +6739,10 @@
         <v>23</v>
       </c>
       <c r="C169" s="39">
-        <v>412.25394802367902</v>
+        <v>272.25394802367902</v>
       </c>
       <c r="D169" s="39">
-        <v>430.74504038966103</v>
+        <v>330.74504038966103</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -6758,10 +6758,10 @@
       <c r="D170" s="39">
         <v>60.268940087453601</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="1">
         <v>2.9201186161072483</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="1">
         <v>3.5091480875833607</v>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
         <v>24</v>
       </c>
       <c r="C185" s="1">
-        <v>206.47923904883899</v>
+        <v>186.47923904883899</v>
       </c>
       <c r="D185" s="39">
         <v>277.41975761028903</v>
@@ -6935,7 +6935,7 @@
         <v>24</v>
       </c>
       <c r="C186" s="1">
-        <v>273.03680965784997</v>
+        <v>203.03680965785</v>
       </c>
       <c r="D186" s="39">
         <v>295.75362836062999</v>
@@ -6946,7 +6946,7 @@
         <v>24</v>
       </c>
       <c r="C187" s="1">
-        <v>282.31098566928</v>
+        <v>212.31098566928</v>
       </c>
       <c r="D187" s="39">
         <v>330.78910659333599</v>
@@ -6957,7 +6957,7 @@
         <v>24</v>
       </c>
       <c r="C188" s="1">
-        <v>328.069421468288</v>
+        <v>228.069421468288</v>
       </c>
       <c r="D188" s="39">
         <v>351.64853102689699</v>
@@ -6968,10 +6968,10 @@
         <v>24</v>
       </c>
       <c r="C189" s="1">
-        <v>371.37977073730701</v>
+        <v>271.37977073730701</v>
       </c>
       <c r="D189" s="39">
-        <v>503.43649368024597</v>
+        <v>403.43649368024597</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,7 +6979,7 @@
         <v>24</v>
       </c>
       <c r="C190" s="1">
-        <v>382.39684746538501</v>
+        <v>282.39684746538501</v>
       </c>
       <c r="D190" s="39">
         <v>1195.4657776484</v>
@@ -6998,10 +6998,10 @@
       <c r="D191">
         <v>31.046066215240799</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="1">
         <v>1.3602236283800178</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
         <v>1.8323389451605161</v>
       </c>
     </row>
@@ -7123,7 +7123,7 @@
         <v>70.352358489049905</v>
       </c>
       <c r="D202">
-        <v>146.73640690051101</v>
+        <v>126.736406900511</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,7 +7134,7 @@
         <v>75.115084193918506</v>
       </c>
       <c r="D203">
-        <v>166.329068902183</v>
+        <v>136.329068902183</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -7145,7 +7145,7 @@
         <v>76.669571763753396</v>
       </c>
       <c r="D204">
-        <v>182.770275726509</v>
+        <v>142.770275726509</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -7156,7 +7156,7 @@
         <v>87.838920173822402</v>
       </c>
       <c r="D205">
-        <v>196.70767204431101</v>
+        <v>156.70767204431101</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>88.712569238304596</v>
       </c>
       <c r="D206">
-        <v>228.74210227379101</v>
+        <v>188.74210227379101</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -7178,7 +7178,7 @@
         <v>99.004407425729298</v>
       </c>
       <c r="D207">
-        <v>263.78139725844602</v>
+        <v>203.78139725844599</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -7189,7 +7189,7 @@
         <v>113.675922693171</v>
       </c>
       <c r="D208">
-        <v>296.46166309694303</v>
+        <v>216.461663096943</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -7200,7 +7200,7 @@
         <v>131.84446358521501</v>
       </c>
       <c r="D209">
-        <v>319.00711351096101</v>
+        <v>239.00711351096101</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -7211,7 +7211,7 @@
         <v>163.80325418421401</v>
       </c>
       <c r="D210">
-        <v>413.67979629087898</v>
+        <v>243.67979629087901</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -7219,14 +7219,14 @@
         <v>25</v>
       </c>
       <c r="C211">
-        <v>662.473179558212</v>
+        <v>172.473179558212</v>
       </c>
       <c r="D211">
-        <v>494.08373909986801</v>
+        <v>244.08373909986801</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E327" t="s">
+      <c r="E327" s="1" t="s">
         <v>47</v>
       </c>
     </row>
